--- a/src/attributions/attributions_ig_traj_205.xlsx
+++ b/src/attributions/attributions_ig_traj_205.xlsx
@@ -1004,19 +1004,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.4053248551636728</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001438696915569379</v>
+        <v>0.07157311436107609</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01745456437563426</v>
+        <v>-0.02820997417063732</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01140249361734914</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>-0.2667881048741602</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.00620275469740691</v>
+        <v>0.341333753345275</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01360638590159793</v>
+        <v>0.06319332889342322</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>-0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02911136201646692</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0</v>
+        <v>0.2921269987679899</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.003250550988194029</v>
+        <v>-0.1579819928717093</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0122223457207367</v>
+        <v>0.0957447909972418</v>
       </c>
       <c r="X2" t="n">
         <v>-0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.03261078699603109</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -1088,124 +1088,124 @@
         <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>0.1345324297706767</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.01476891214324832</v>
+        <v>-0.07742411895973335</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.04832729552957065</v>
+        <v>-0.1786640794762627</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.02327086123518138</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>0.1801556126685497</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0233171489212853</v>
+        <v>-0.1590491862754211</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.01876016947413088</v>
+        <v>-0.1533648264989648</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.02491854044713036</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>1.240853335286215</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.0702889798756153</v>
+        <v>-0.03411767224322364</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.05233951574865104</v>
+        <v>0.3471982854371615</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0786503686520594</v>
+        <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
         <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0</v>
+        <v>0.1075579228747403</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.03167114767476058</v>
+        <v>-0.1632810112846431</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.01528482761737021</v>
+        <v>-0.1181379517225853</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.02790254285297842</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0</v>
+        <v>0.03529582619749665</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.06369208959253618</v>
+        <v>0.2865403982311705</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.01302604519616973</v>
+        <v>0.236151655072682</v>
       </c>
       <c r="BQ2" t="n">
         <v>-0</v>
@@ -1214,52 +1214,52 @@
         <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.08167285916029472</v>
+        <v>-0</v>
       </c>
       <c r="BT2" t="n">
         <v>-0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>0.4970831570040488</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.05174894195013709</v>
+        <v>-0.0979262803821717</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.04203446185800699</v>
+        <v>0.1538829861843602</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.02077488282487021</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0</v>
+        <v>-0.2867268145164202</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.00445036464525113</v>
+        <v>0.09709081021432026</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.03083287497203737</v>
+        <v>-0.09440451839655746</v>
       </c>
       <c r="CI2" t="n">
         <v>-0</v>
@@ -1268,34 +1268,34 @@
         <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.009645371069427628</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>-0.04596701897607019</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.02058984837444897</v>
+        <v>0.03503148014375238</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.009833764194697168</v>
+        <v>-0.3203868387568067</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.007086798614233025</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
         <v>-0</v>
@@ -1304,133 +1304,133 @@
         <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0</v>
+        <v>-0.3224777442474497</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.002510623092349386</v>
+        <v>0.1398239463089192</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.03421760451613952</v>
+        <v>-0.06539156423648054</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.02288690719084865</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0</v>
+        <v>-0.1540466957654925</v>
       </c>
       <c r="DG2" t="n">
         <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.01017112900312835</v>
+        <v>0.1698394933662964</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.128573083096045</v>
+        <v>-0.1235504793993738</v>
       </c>
       <c r="DJ2" t="n">
         <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.001354179994523816</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.2175167445888433</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.06660442411788202</v>
+        <v>-0.01711042900805962</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.03708843258145033</v>
+        <v>-0.2325421924014532</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
-        <v>-0.06515458945060859</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0</v>
+        <v>-0.2624004815515886</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.03398104043180244</v>
+        <v>-0.268444531164987</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.03437937348320764</v>
+        <v>0.07473201646368967</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.005768160843915869</v>
+        <v>0</v>
       </c>
       <c r="EE2" t="n">
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.3057147628331435</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.006286505527798883</v>
+        <v>0.121588548771758</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.0531848038371048</v>
+        <v>0.1036072644875753</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.02573248959092677</v>
+        <v>-0</v>
       </c>
       <c r="EN2" t="n">
         <v>0</v>
@@ -1439,25 +1439,25 @@
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0</v>
+        <v>0.08349417397275029</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.1091610998821281</v>
+        <v>0.0668139871595691</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.002508373926685062</v>
+        <v>-0.1349188996583016</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.01165075296245709</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>-0</v>
@@ -1466,43 +1466,43 @@
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0</v>
+        <v>-0.3190263354849135</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.01977097055064348</v>
+        <v>0.1295851202739503</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.02681898540852043</v>
+        <v>-0.09937635836043596</v>
       </c>
       <c r="FC2" t="n">
         <v>-0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02839922389595159</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG2" t="n">
         <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>-0.04317343979739603</v>
       </c>
       <c r="FI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.03569736344786783</v>
+        <v>-0.09732801751795532</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.03205445769075213</v>
+        <v>-0.1616740847714846</v>
       </c>
       <c r="FL2" t="n">
         <v>-0</v>
@@ -1511,34 +1511,34 @@
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.03689226259963909</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0.07277948231732516</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.07603829922070897</v>
+        <v>0.1167311957063454</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.00177450127113867</v>
+        <v>-0.2355035157825048</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0.0211102624546502</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
         <v>0</v>
@@ -1547,183 +1547,183 @@
         <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>-0.1312249814836794</v>
       </c>
       <c r="GA2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.002770663766893959</v>
+        <v>0.04220979665794455</v>
       </c>
       <c r="GC2" t="n">
         <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
         <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.01060558781104503</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.3294402833566414</v>
+        <v>-0</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05540542537598282</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02029731650030442</v>
+        <v>0.006167100515759998</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0.08811758211162711</v>
       </c>
       <c r="G3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.01391891437225947</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09206820900976975</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03278746484509047</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.07511345053593514</v>
+        <v>-0.01769808393095071</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.02449574884746416</v>
       </c>
       <c r="P3" t="n">
         <v>-0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-0.003659815211994423</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1263063565788</v>
+        <v>-0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02777849925465601</v>
+        <v>-0</v>
       </c>
       <c r="V3" t="n">
         <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.19982683159435</v>
+        <v>-0.00259140799135481</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>-0.08902703157349903</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0</v>
+        <v>-0.03754067610043443</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.08965409961069704</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.04448056657668827</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.198650490632269</v>
+        <v>-0.02083572088653422</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0</v>
+        <v>-0.04879352182860924</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0</v>
+        <v>-0.006524497858832804</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.1523549067261523</v>
+        <v>-0</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0371011180604949</v>
+        <v>-0</v>
       </c>
       <c r="AN3" t="n">
         <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.1357707566164143</v>
+        <v>0.0446031806266661</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>-0.01949006189647715</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>0.005235846134621907</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.4317037074024362</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1786112864392771</v>
+        <v>-0</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.01076177188887478</v>
+        <v>-0.08740503753394591</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0</v>
+        <v>-0.1051288301493994</v>
       </c>
       <c r="AZ3" t="n">
         <v>0</v>
@@ -1732,456 +1732,456 @@
         <v>0</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0</v>
+        <v>0.001371147884660593</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.1816792438846254</v>
+        <v>-0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.03700920712016668</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.01818626645245348</v>
+        <v>0.02259088984692445</v>
       </c>
       <c r="BH3" t="n">
-        <v>0</v>
+        <v>-0.03249253067447042</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ3" t="n">
         <v>-0</v>
       </c>
       <c r="BK3" t="n">
-        <v>0</v>
+        <v>0.009751805177523526</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.0512928544677857</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0.03946103235478341</v>
+        <v>-0</v>
       </c>
       <c r="BO3" t="n">
         <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>-0.175921310117526</v>
+        <v>0.03255641559514299</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>-0.01104398149495595</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
         <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0</v>
+        <v>-0.01215480562886395</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0.2715796436019915</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.02755239725565724</v>
+        <v>-0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.02422974416432688</v>
+        <v>-0.01868418371738091</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0</v>
+        <v>-0.06339171527669347</v>
       </c>
       <c r="CA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB3" t="n">
         <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0</v>
+        <v>-0.004207973973164034</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.1686224139809859</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="n">
         <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0.03273124349002533</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.0357108932181781</v>
+        <v>-0.006964889668995782</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0</v>
+        <v>0.04214675922023926</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
         <v>-0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0</v>
+        <v>-0.003832046088503425</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.1195386483422585</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0.0384111129640743</v>
+        <v>-0</v>
       </c>
       <c r="CP3" t="n">
         <v>-0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.1254796528046282</v>
+        <v>0.02698237283204064</v>
       </c>
       <c r="CR3" t="n">
-        <v>0</v>
+        <v>0.005401845865694688</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0</v>
+        <v>0.03172548919648877</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.1840023228776738</v>
+        <v>-0</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>-0.04932332273916826</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.02950363274864451</v>
+        <v>0.01598248980653969</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>0.03518050472957349</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>0.005736935593999449</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.0003344962131414661</v>
+        <v>-0</v>
       </c>
       <c r="DF3" t="n">
         <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0.09030784836192907</v>
+        <v>-0</v>
       </c>
       <c r="DH3" t="n">
         <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.0518877466810868</v>
+        <v>-0.003839481635765812</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>-0.0007815790647092456</v>
       </c>
       <c r="DK3" t="n">
         <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0</v>
+        <v>-0.006750728276552806</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0430862249768107</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
         <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.0685199324160479</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.08244463598206167</v>
+        <v>0.04712966573596284</v>
       </c>
       <c r="DS3" t="n">
-        <v>0</v>
+        <v>0.02937446515927334</v>
       </c>
       <c r="DT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0</v>
+        <v>0.007128418736481825</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.1103507001846776</v>
+        <v>-0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.001691609644195327</v>
+        <v>-0</v>
       </c>
       <c r="DZ3" t="n">
         <v>-0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.03339774080461391</v>
+        <v>0.004842195815816531</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0</v>
+        <v>0.05457856657531204</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0</v>
+        <v>-0.0248288057636394</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.187453656114415</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0.05095623459743465</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.01536406988514374</v>
+        <v>0.01090097302195192</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0</v>
+        <v>0.0401142722126228</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
         <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>0</v>
+        <v>-0.01265625952708676</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.07911378211092193</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
         <v>0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.103162791373286</v>
+        <v>-0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.07209826514342359</v>
+        <v>0.07869132386098274</v>
       </c>
       <c r="ET3" t="n">
-        <v>0</v>
+        <v>0.008741843575571095</v>
       </c>
       <c r="EU3" t="n">
         <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0</v>
+        <v>-0.0188395437405344</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.1957764499593326</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.06278220322605332</v>
+        <v>-0</v>
       </c>
       <c r="FA3" t="n">
         <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.01108562572346505</v>
+        <v>0.02466881070784692</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0</v>
+        <v>0.03579647762589158</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
         <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0</v>
+        <v>0.005881880175345631</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.1170173631970551</v>
+        <v>-0</v>
       </c>
       <c r="FH3" t="n">
         <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.004960856482324017</v>
+        <v>-0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.1144541101343147</v>
+        <v>0.07062997607360193</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0.02785542736841874</v>
       </c>
       <c r="FM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN3" t="n">
         <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>0</v>
+        <v>0.01955884147674758</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.001133743033305435</v>
+        <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.03242976471559523</v>
+        <v>-0</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.03662330278764343</v>
+        <v>0.05136237261972761</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0.03646210037240268</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
         <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0</v>
+        <v>0.008039934557126826</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.009152678098359651</v>
+        <v>-0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GA3" t="n">
-        <v>-0.002596407316333425</v>
+        <v>-0</v>
       </c>
       <c r="GB3" t="n">
         <v>-0</v>
       </c>
       <c r="GC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>0.01408362430697002</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0</v>
+        <v>-0.01562452308903933</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1367755342541176</v>
+        <v>-0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.00735739518129141</v>
+        <v>-0.07498804478836586</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.2123108505157703</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02648686714505606</v>
+        <v>0.005516432524130028</v>
       </c>
       <c r="F4" t="n">
         <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1447608925115937</v>
+        <v>-0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.004666939716224117</v>
+        <v>0.0210650617049058</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.2062088150060369</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0175923563379955</v>
+        <v>-0.007387703804133994</v>
       </c>
       <c r="O4" t="n">
         <v>-0</v>
@@ -2193,106 +2193,106 @@
         <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04892490680623737</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.005801648485555531</v>
+        <v>-0.09179633776493132</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0</v>
+        <v>0.01626758625129003</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.03622483890805638</v>
+        <v>-0.03827681932504355</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA4" t="n">
         <v>-0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02906621485549619</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.03366999518274053</v>
+        <v>-0.05304819134633224</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0</v>
+        <v>-0.01596718197831162</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.02574613973470245</v>
+        <v>0.001357506954384982</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.03112343954080615</v>
+        <v>-0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.02640401302856191</v>
+        <v>-0.03337734227611048</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>0.02710235950979624</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.03479683958265728</v>
+        <v>0.06807114299100285</v>
       </c>
       <c r="AP4" t="n">
         <v>-0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS4" t="n">
         <v>-0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.04860500125446495</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.01311158556637226</v>
+        <v>-0.1493238582359526</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>0.07989574898010814</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.07457796665397511</v>
+        <v>0.004724416540976223</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
         <v>-0</v>
@@ -2304,19 +2304,19 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.06732656262280234</v>
+        <v>-0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.007026465684806309</v>
+        <v>-0.01731206187656933</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>0.08423891762249715</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.02351003570765214</v>
+        <v>0.03181235655624312</v>
       </c>
       <c r="BH4" t="n">
         <v>0</v>
@@ -2325,25 +2325,25 @@
         <v>0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK4" t="n">
         <v>-0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.02989329812026577</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0.006827527122476014</v>
+        <v>0.03624722305829137</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>-0.03913293478256753</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.03070208939577875</v>
+        <v>-0.08637971709137597</v>
       </c>
       <c r="BQ4" t="n">
         <v>0</v>
@@ -2358,52 +2358,52 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.0406156845451628</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.0202515651654646</v>
+        <v>-0.04500391369559421</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>0.01500758071599884</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.02574152753322551</v>
+        <v>-0.02086773070508119</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA4" t="n">
         <v>-0</v>
       </c>
       <c r="CB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0.01557663189872756</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0.00142449822436114</v>
+        <v>0.03220467152992416</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>-0.03364726260395302</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.02205043183556894</v>
+        <v>0.01645725400885414</v>
       </c>
       <c r="CI4" t="n">
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.002373205917118335</v>
+        <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.01477646103600577</v>
+        <v>-0.01104918755697818</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>0.02074356515685865</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.01381074371673804</v>
+        <v>0.03582172844414858</v>
       </c>
       <c r="CR4" t="n">
         <v>-0</v>
@@ -2433,25 +2433,25 @@
         <v>0</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0.01308099857112348</v>
+        <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0.007046342828025828</v>
+        <v>0.04603546316646197</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0</v>
+        <v>-0.03621017246313984</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.02311917450041284</v>
+        <v>0.009757611166591691</v>
       </c>
       <c r="DA4" t="n">
         <v>-0</v>
@@ -2463,52 +2463,52 @@
         <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.02650049793265984</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0.03789938148808267</v>
+        <v>0.02952187127600957</v>
       </c>
       <c r="DG4" t="n">
         <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0</v>
+        <v>0.02516906389234852</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.01655603800736003</v>
+        <v>0.03783215140409813</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM4" t="n">
         <v>-0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.01523211513547074</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.0241616742585966</v>
+        <v>-0.01844302020456456</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>0.03409103206182655</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.02175948141759325</v>
+        <v>-0.01622991875651391</v>
       </c>
       <c r="DS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2520,22 +2520,22 @@
         <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.004318919954387183</v>
+        <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.001840163538919862</v>
+        <v>-0.0547282908726129</v>
       </c>
       <c r="DY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0.01156697219937911</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.001142229002980451</v>
+        <v>-0.02323154868926323</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2547,19 +2547,19 @@
         <v>-0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.05331443542496793</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.001983236331310887</v>
+        <v>0.04188967657062639</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>0.07034029962704759</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.005103259022229016</v>
+        <v>-0.02720351628130804</v>
       </c>
       <c r="EK4" t="n">
         <v>-0</v>
@@ -2574,52 +2574,52 @@
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0.003772697859894462</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.04654742240480834</v>
+        <v>0.04467283160219787</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>0</v>
+        <v>-0.0332712947545084</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.0006608350204503525</v>
+        <v>0.03374213308970007</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0.02037367269515363</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0.004590071653747885</v>
+        <v>0.04336569382910841</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>0</v>
+        <v>-0.02930277627662451</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.02586669967352049</v>
+        <v>0.01670699430381313</v>
       </c>
       <c r="FC4" t="n">
         <v>0</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
@@ -2628,79 +2628,79 @@
         <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.01588146890084096</v>
+        <v>-0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.01733355832079873</v>
+        <v>0.003066748497303185</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0</v>
+        <v>-0.006813118420519349</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.01406789712261567</v>
+        <v>-0.006099503072460796</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM4" t="n">
         <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
         <v>-0</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.04954921436712118</v>
+        <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.004502187591911159</v>
+        <v>-0.01240537822611858</v>
       </c>
       <c r="FR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0</v>
+        <v>-0.02042875914825069</v>
       </c>
       <c r="FT4" t="n">
-        <v>-0.001682252767127671</v>
+        <v>0.007039864533620131</v>
       </c>
       <c r="FU4" t="n">
         <v>0</v>
       </c>
       <c r="FV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX4" t="n">
         <v>-0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.06798150582246251</v>
+        <v>0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.02849557395852941</v>
+        <v>-0.03029568608595597</v>
       </c>
       <c r="GA4" t="n">
         <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>-0</v>
+        <v>0.03483274327951914</v>
       </c>
       <c r="GC4" t="n">
         <v>-0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
         <v>-0</v>
